--- a/documentos/ciclo1/Claudia Vargas/SCHEDULE_claudia.xlsx
+++ b/documentos/ciclo1/Claudia Vargas/SCHEDULE_claudia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="19440" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="19440" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Cumulative Planned Value</t>
   </si>
   <si>
-    <t>Team Hours</t>
-  </si>
-  <si>
     <t>Week Earned Value</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Claudia Vargas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hours</t>
   </si>
 </sst>
 </file>
@@ -298,16 +298,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,6 +374,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -334,9 +407,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -344,76 +414,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,14 +734,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -764,246 +764,246 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="43" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44">
+      <c r="I3" s="17"/>
+      <c r="J3" s="18">
         <v>41719</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="43" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="26">
+      <c r="I5" s="17"/>
+      <c r="J5" s="20">
         <v>1</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="23" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="32" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="48"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="48"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="48"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="48"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="28"/>
+      <c r="B14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="22"/>
       <c r="D14" s="8">
         <v>3.5</v>
       </c>
@@ -1014,37 +1014,30 @@
         <f>(D14/D20)*100</f>
         <v>11.627906976744185</v>
       </c>
-      <c r="G14" s="27">
-        <f>16/5</f>
-        <v>3.2</v>
-      </c>
-      <c r="H14" s="28"/>
+      <c r="G14" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="H14" s="22"/>
       <c r="I14" s="8">
-        <f>G14</f>
-        <v>3.2</v>
-      </c>
-      <c r="J14" s="27">
-        <v>11.6</v>
-      </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="46">
-        <f>J14</f>
-        <v>11.6</v>
-      </c>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="48"/>
+        <v>3.5</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="21">
         <v>41717</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="9">
         <v>0</v>
       </c>
@@ -1056,36 +1049,31 @@
         <f>((D15/D20)*100)+F14</f>
         <v>11.627906976744185</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="23">
         <v>0</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="9">
         <f>G15+I14</f>
-        <v>3.2</v>
-      </c>
-      <c r="J15" s="27">
-        <v>0</v>
-      </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="47">
-        <f>J15+L14</f>
-        <v>11.6</v>
-      </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="48"/>
+        <v>3.5</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>3</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="21">
         <v>41724</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="9">
         <v>7.6</v>
       </c>
@@ -1097,36 +1085,31 @@
         <f>((D16/D20)*100)+F15</f>
         <v>36.877076411960132</v>
       </c>
-      <c r="G16" s="27">
-        <v>22.5</v>
-      </c>
-      <c r="H16" s="28"/>
+      <c r="G16" s="23">
+        <f>I16-G14</f>
+        <v>7.58</v>
+      </c>
+      <c r="H16" s="22"/>
       <c r="I16" s="9">
-        <f>G16+I15</f>
-        <v>25.7</v>
-      </c>
-      <c r="J16" s="27">
-        <f>L16-L15</f>
-        <v>26.9</v>
-      </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="47">
-        <v>38.5</v>
-      </c>
-      <c r="M16" s="48"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="48"/>
+        <v>11.08</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>4</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="21">
         <v>41731</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9">
         <v>5</v>
       </c>
@@ -1138,26 +1121,26 @@
         <f>((D17/D20)*100)+F16</f>
         <v>53.488372093023258</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="48"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>5</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="21">
         <v>41679</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="9">
         <v>11.5</v>
       </c>
@@ -1169,26 +1152,26 @@
         <f>((D18/D20)*100)+F17</f>
         <v>91.694352159468451</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="48"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>6</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="21">
         <v>41686</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="9">
         <v>2.5</v>
       </c>
@@ -1200,69 +1183,38 @@
         <f>((D19/D20)*100)+F18</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="6">
         <f>SUM(D14:D19)</f>
         <v>30.1</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="6"/>
-      <c r="N20" s="48"/>
+      <c r="N20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J8:K13"/>
-    <mergeCell ref="B8:C13"/>
-    <mergeCell ref="G8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="D8:D13"/>
@@ -1279,6 +1231,37 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J8:K13"/>
+    <mergeCell ref="B8:C13"/>
+    <mergeCell ref="G8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
